--- a/02 - config/example_small/electricity.xlsx
+++ b/02 - config/example_small/electricity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\GitKraken\LAMA\02 - config\example_small\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\LRZ Sync+Share\STROM Project\Project Data\Data Exchange\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2956E0-A1C5-41BD-A8F7-06162C5F3D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A1D78-1CFC-4672-B866-278D1B1AE5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="759">
   <si>
     <t>version</t>
   </si>
@@ -2403,13 +2403,19 @@
   </si>
   <si>
     <t>Dorf</t>
+  </si>
+  <si>
+    <t>7091091_001001_001001_00020004_09002</t>
+  </si>
+  <si>
+    <t>7091091_001001_001001_00020004_09003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2425,25 +2431,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2478,11 +2478,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17292,7 +17292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -19563,2493 +19563,2645 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="164.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="37.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="164.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="4">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>20640</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>17221</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1.7455000488999999E-5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>3.5443861180000001E-6</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="2" t="str">
         <f>"agent_type:ctsp,sub_type:office,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P2,FIND($P$1&amp;":",P2)+LEN($P$1)+2,FIND(" kWh",P2,FIND($P$1&amp;":",P2))-(FIND($P$1&amp;":",P2)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:ctsp,sub_type:office,dummy:False,demand:19.523,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>20642</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>13014</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>6.4439997076989998E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>9.1822148533500004E-4</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L3" t="str">
+      <c r="L3" s="2" t="str">
         <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P3,FIND($P$1&amp;":",P3)+LEN($P$1)+2,FIND(" kWh",P3,FIND($P$1&amp;":",P3))-(FIND($P$1&amp;":",P3)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:mfh,dummy:False,demand:14.496,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>20643</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>13014</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>5.0500000361399996E-4</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>7.1958580519999995E-5</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4" s="2" t="str">
         <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P4,FIND($P$1&amp;":",P4)+LEN($P$1)+2,FIND(" kWh",P4,FIND($P$1&amp;":",P4))-(FIND($P$1&amp;":",P4)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:mfh,dummy:False,demand:0.007,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>20644</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>13014</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>1.43080993439E-4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>2.9053795514999999E-5</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L5" s="2" t="str">
         <f>"agent_type:industry,sub_type:storage,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P5,FIND($P$1&amp;":",P5)+LEN($P$1)+2,FIND(" kWh",P5,FIND($P$1&amp;":",P5))-(FIND($P$1&amp;":",P5)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:industry,sub_type:storage,dummy:False,demand:133.764,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>20646</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>14854</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>2.055000048131E-3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>2.9282149625900001E-4</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L6" s="2" t="str">
         <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P6,FIND($P$1&amp;":",P6)+LEN($P$1)+2,FIND(" kWh",P6,FIND($P$1&amp;":",P6))-(FIND($P$1&amp;":",P6)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:mfh,dummy:False,demand:2.048,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>20647</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>14854</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>2.279999898747E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>3.24881868437E-4</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L7" t="str">
+      <c r="L7" s="2" t="str">
         <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P7,FIND($P$1&amp;":",P7)+LEN($P$1)+2,FIND(" kWh",P7,FIND($P$1&amp;":",P7))-(FIND($P$1&amp;":",P7)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:mfh,dummy:False,demand:2.13,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>20648</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>14854</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>2.055000048131E-3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>2.9282149625900001E-4</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L8" s="2" t="str">
         <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P8,FIND($P$1&amp;":",P8)+LEN($P$1)+2,FIND(" kWh",P8,FIND($P$1&amp;":",P8))-(FIND($P$1&amp;":",P8)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:mfh,dummy:False,demand:2.048,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>20649</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>13888</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>6.982000079006E-3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>9.9488114938099995E-4</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9" s="2" t="str">
         <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P9,FIND($P$1&amp;":",P9)+LEN($P$1)+2,FIND(" kWh",P9,FIND($P$1&amp;":",P9))-(FIND($P$1&amp;":",P9)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:mfh,dummy:False,demand:7.476,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>20650</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>13888</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>6.982000079006E-3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>9.9488114938099995E-4</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L10" s="2" t="str">
         <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P10,FIND($P$1&amp;":",P10)+LEN($P$1)+2,FIND(" kWh",P10,FIND($P$1&amp;":",P10))-(FIND($P$1&amp;":",P10)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:mfh,dummy:False,demand:7.476,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>20651</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>14787</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>2.5979999918490002E-3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>3.7019458250099998E-4</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L11" s="2" t="str">
         <f>"agent_type:sfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P11,FIND($P$1&amp;":",P11)+LEN($P$1)+2,FIND(" kWh",P11,FIND($P$1&amp;":",P11))-(FIND($P$1&amp;":",P11)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:sfh,dummy:False,demand:5.599,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>20652</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>17155</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>2.686999971047E-3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>3.82876198273E-4</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L12" s="2" t="str">
         <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P12,FIND($P$1&amp;":",P12)+LEN($P$1)+2,FIND(" kWh",P12,FIND($P$1&amp;":",P12))-(FIND($P$1&amp;":",P12)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:mfh,dummy:False,demand:4.403,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>20653</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>17155</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>5.4000000091E-5</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>7.6945707409999996E-6</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13" s="2" t="str">
         <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P13,FIND($P$1&amp;":",P13)+LEN($P$1)+2,FIND(" kWh",P13,FIND($P$1&amp;":",P13))-(FIND($P$1&amp;":",P13)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:mfh,dummy:False,demand:0.011,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>20654</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>17155</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>2.686999971047E-3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>3.82876198273E-4</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L14" s="2" t="str">
         <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P14,FIND($P$1&amp;":",P14)+LEN($P$1)+2,FIND(" kWh",P14,FIND($P$1&amp;":",P14))-(FIND($P$1&amp;":",P14)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:mfh,dummy:False,demand:4.403,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>20655</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>16582</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>2.0419999491419999E-3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>2.9096836806300001E-4</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L15" s="2" t="str">
         <f>"agent_type:sfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P15,FIND($P$1&amp;":",P15)+LEN($P$1)+2,FIND(" kWh",P15,FIND($P$1&amp;":",P15))-(FIND($P$1&amp;":",P15)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:sfh,dummy:False,demand:2.498,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>20656</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>17868</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>1.396999927238E-3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>1.9906167290199999E-4</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L16" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P16,FIND($P$1&amp;":",P16)+LEN($P$1)+2,FIND(" kWh",P16,FIND($P$1&amp;":",P16))-(FIND($P$1&amp;":",P16)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L16" s="2" t="str">
+        <f t="shared" ref="L16:L46" si="0">"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P16,FIND($P$1&amp;":",P16)+LEN($P$1)+2,FIND(" kWh",P16,FIND($P$1&amp;":",P16))-(FIND($P$1&amp;":",P16)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:mfh,dummy:False,demand:0.661,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>20657</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>17868</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>3.1020001042629999E-3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>4.4201134005599998E-4</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L17" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P17,FIND($P$1&amp;":",P17)+LEN($P$1)+2,FIND(" kWh",P17,FIND($P$1&amp;":",P17))-(FIND($P$1&amp;":",P17)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:3.143,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>20658</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>17868</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>1.337000052445E-3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>1.9051181152500001E-4</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L18" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P18,FIND($P$1&amp;":",P18)+LEN($P$1)+2,FIND(" kWh",P18,FIND($P$1&amp;":",P18))-(FIND($P$1&amp;":",P18)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L18" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:1.047,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>20659</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>20680</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>2.5700000114739999E-3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>3.6620596074499998E-4</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="J19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L19" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P19,FIND($P$1&amp;":",P19)+LEN($P$1)+2,FIND(" kWh",P19,FIND($P$1&amp;":",P19))-(FIND($P$1&amp;":",P19)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L19" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:1.799,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>20660</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>20680</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>2.5700000114739999E-3</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>3.6620596074499998E-4</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L20" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P20,FIND($P$1&amp;":",P20)+LEN($P$1)+2,FIND(" kWh",P20,FIND($P$1&amp;":",P20))-(FIND($P$1&amp;":",P20)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L20" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:1.799,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>20661</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>14786</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>5.0500000361399996E-4</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>7.1958580519999995E-5</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="J21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L21" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P21,FIND($P$1&amp;":",P21)+LEN($P$1)+2,FIND(" kWh",P21,FIND($P$1&amp;":",P21))-(FIND($P$1&amp;":",P21)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L21" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:0.817,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>20662</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>14786</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>2.2679998073730002E-3</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>3.2317248405900001E-4</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="J22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L22" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P22,FIND($P$1&amp;":",P22)+LEN($P$1)+2,FIND(" kWh",P22,FIND($P$1&amp;":",P22))-(FIND($P$1&amp;":",P22)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L22" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:3.253,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>20663</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>14786</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>2.2679998073730002E-3</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>3.2317248405900001E-4</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="J23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L23" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P23,FIND($P$1&amp;":",P23)+LEN($P$1)+2,FIND(" kWh",P23,FIND($P$1&amp;":",P23))-(FIND($P$1&amp;":",P23)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L23" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:3.253,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>20664</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>20267</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>2.7759999502449998E-3</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>3.9555877447099998E-4</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J24" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="J24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L24" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P24,FIND($P$1&amp;":",P24)+LEN($P$1)+2,FIND(" kWh",P24,FIND($P$1&amp;":",P24))-(FIND($P$1&amp;":",P24)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L24" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:2.127,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>20665</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>20267</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>2.7759999502449998E-3</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>3.9555877447099998E-4</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="J25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L25" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P25,FIND($P$1&amp;":",P25)+LEN($P$1)+2,FIND(" kWh",P25,FIND($P$1&amp;":",P25))-(FIND($P$1&amp;":",P25)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L25" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:2.127,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>20666</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>14505</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>2.5700000696799997E-4</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>3.6620444007000002E-5</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="I26">
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J26" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="J26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L26" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P26,FIND($P$1&amp;":",P26)+LEN($P$1)+2,FIND(" kWh",P26,FIND($P$1&amp;":",P26))-(FIND($P$1&amp;":",P26)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L26" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:2.404,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>20667</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>14505</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>1.271000015549E-3</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>1.8110775272400001E-4</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="J27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L27" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P27,FIND($P$1&amp;":",P27)+LEN($P$1)+2,FIND(" kWh",P27,FIND($P$1&amp;":",P27))-(FIND($P$1&amp;":",P27)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L27" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:2.594,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>20668</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>20423</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>1.7729999963190001E-3</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>2.5263865245499998E-4</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="J28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L28" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P28,FIND($P$1&amp;":",P28)+LEN($P$1)+2,FIND(" kWh",P28,FIND($P$1&amp;":",P28))-(FIND($P$1&amp;":",P28)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L28" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:2.1,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>20669</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>20423</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>1.7990000778810001E-3</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>2.56343773799E-4</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="J29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L29" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P29,FIND($P$1&amp;":",P29)+LEN($P$1)+2,FIND(" kWh",P29,FIND($P$1&amp;":",P29))-(FIND($P$1&amp;":",P29)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L29" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:0.67,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>20670</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>20423</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>1.7729999963190001E-3</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>2.5263865245499998E-4</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="I30">
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="J30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L30" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P30,FIND($P$1&amp;":",P30)+LEN($P$1)+2,FIND(" kWh",P30,FIND($P$1&amp;":",P30))-(FIND($P$1&amp;":",P30)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L30" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:2.1,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>20671</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>17261</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>2.3839999921620001E-3</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>3.3970086951699998E-4</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="I31">
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="J31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L31" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P31,FIND($P$1&amp;":",P31)+LEN($P$1)+2,FIND(" kWh",P31,FIND($P$1&amp;":",P31))-(FIND($P$1&amp;":",P31)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L31" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:2.863,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>20672</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>17261</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>9.4700005138299999E-4</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>1.34940491989E-4</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="I32">
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="J32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L32" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P32,FIND($P$1&amp;":",P32)+LEN($P$1)+2,FIND(" kWh",P32,FIND($P$1&amp;":",P32))-(FIND($P$1&amp;":",P32)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L32" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:9.362,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>20673</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>20652</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>2.4560000747439999E-3</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>3.4996145404899998E-4</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="I33">
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="J33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L33" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P33,FIND($P$1&amp;":",P33)+LEN($P$1)+2,FIND(" kWh",P33,FIND($P$1&amp;":",P33))-(FIND($P$1&amp;":",P33)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L33" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:3.689,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <v>20674</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>20652</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>2.5069999974219998E-3</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>3.5722710890700001E-4</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="I34">
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="J34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L34" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P34,FIND($P$1&amp;":",P34)+LEN($P$1)+2,FIND(" kWh",P34,FIND($P$1&amp;":",P34))-(FIND($P$1&amp;":",P34)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L34" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:3.373,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>20675</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>20652</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>2.4560000747439999E-3</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>3.4996145404899998E-4</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="I35">
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J35" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="J35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L35" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P35,FIND($P$1&amp;":",P35)+LEN($P$1)+2,FIND(" kWh",P35,FIND($P$1&amp;":",P35))-(FIND($P$1&amp;":",P35)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L35" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:3.689,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>20676</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>20652</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="I36">
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="J36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L36" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P36,FIND($P$1&amp;":",P36)+LEN($P$1)+2,FIND(" kWh",P36,FIND($P$1&amp;":",P36))-(FIND($P$1&amp;":",P36)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L36" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:0.049,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>20677</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>17087</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>2.7309998404229999E-3</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>3.8914586184500002E-4</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="I37">
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J37" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="J37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L37" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P37,FIND($P$1&amp;":",P37)+LEN($P$1)+2,FIND(" kWh",P37,FIND($P$1&amp;":",P37))-(FIND($P$1&amp;":",P37)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L37" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:2.235,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>20678</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>17087</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>1.717000035569E-3</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>2.4465928436299999E-4</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="I38">
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J38" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="J38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L38" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P38,FIND($P$1&amp;":",P38)+LEN($P$1)+2,FIND(" kWh",P38,FIND($P$1&amp;":",P38))-(FIND($P$1&amp;":",P38)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L38" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:1.127,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>20679</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>17087</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>1.4099999098110001E-3</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>2.00913738809E-4</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="I39">
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="J39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L39" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P39,FIND($P$1&amp;":",P39)+LEN($P$1)+2,FIND(" kWh",P39,FIND($P$1&amp;":",P39))-(FIND($P$1&amp;":",P39)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L39" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:0.884,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>20680</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>17087</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="I40">
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J40" t="b">
-        <v>1</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="J40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L40" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P40,FIND($P$1&amp;":",P40)+LEN($P$1)+2,FIND(" kWh",P40,FIND($P$1&amp;":",P40))-(FIND($P$1&amp;":",P40)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L40" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:0.007,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <v>20681</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>17087</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>1.717000035569E-3</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>2.4465928436299999E-4</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="I41">
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J41" t="b">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="J41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L41" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P41,FIND($P$1&amp;":",P41)+LEN($P$1)+2,FIND(" kWh",P41,FIND($P$1&amp;":",P41))-(FIND($P$1&amp;":",P41)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L41" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:1.127,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>20682</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>19889</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>2.4600001051999998E-4</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>3.5053104510999997E-5</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="I42">
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J42" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="J42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L42" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P42,FIND($P$1&amp;":",P42)+LEN($P$1)+2,FIND(" kWh",P42,FIND($P$1&amp;":",P42))-(FIND($P$1&amp;":",P42)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L42" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:0.295,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
         <v>20683</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>19889</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>1.98099995032E-3</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>2.82277120277E-4</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="I43">
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J43" t="b">
-        <v>1</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="J43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L43" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P43,FIND($P$1&amp;":",P43)+LEN($P$1)+2,FIND(" kWh",P43,FIND($P$1&amp;":",P43))-(FIND($P$1&amp;":",P43)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L43" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:2.46,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
         <v>20684</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>19889</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>1.4550000196319999E-3</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>2.0732602570199999E-4</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="I44">
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J44" t="b">
-        <v>1</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="J44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L44" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P44,FIND($P$1&amp;":",P44)+LEN($P$1)+2,FIND(" kWh",P44,FIND($P$1&amp;":",P44))-(FIND($P$1&amp;":",P44)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L44" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:1.538,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P44" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
         <v>20685</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>19889</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>1.271000015549E-3</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>1.8110775272400001E-4</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="I45">
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J45" t="b">
-        <v>1</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="J45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L45" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P45,FIND($P$1&amp;":",P45)+LEN($P$1)+2,FIND(" kWh",P45,FIND($P$1&amp;":",P45))-(FIND($P$1&amp;":",P45)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L45" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:2.529,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
         <v>20686</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>19889</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>1.271000015549E-3</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>1.8110775272400001E-4</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="I46">
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J46" t="b">
-        <v>1</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="J46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L46" t="str">
-        <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P46,FIND($P$1&amp;":",P46)+LEN($P$1)+2,FIND(" kWh",P46,FIND($P$1&amp;":",P46))-(FIND($P$1&amp;":",P46)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L46" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>agent_type:mfh,dummy:False,demand:2.529,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
         <v>20687</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>13076</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>3.1559998169540002E-3</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>4.4970470480600001E-4</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="I47">
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J47" t="b">
-        <v>1</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="J47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L47" t="str">
+      <c r="L47" s="2" t="str">
         <f>"agent_type:sfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P47,FIND($P$1&amp;":",P47)+LEN($P$1)+2,FIND(" kWh",P47,FIND($P$1&amp;":",P47))-(FIND($P$1&amp;":",P47)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:sfh,dummy:False,demand:5.237,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
         <v>20688</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>13846</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>1.5119999879969999E-3</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>2.15448628296E-4</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="I48">
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J48" t="b">
-        <v>1</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="J48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L48" t="str">
+      <c r="L48" s="2" t="str">
         <f>"agent_type:sfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P48,FIND($P$1&amp;":",P48)+LEN($P$1)+2,FIND(" kWh",P48,FIND($P$1&amp;":",P48))-(FIND($P$1&amp;":",P48)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:sfh,dummy:False,demand:3.418,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
         <v>20689</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>16503</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>6.1547994845999999E-5</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>1.2497837815E-5</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="I49">
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J49" t="b">
-        <v>1</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="J49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L49" t="str">
+      <c r="L49" s="2" t="str">
         <f>"agent_type:ctsp,sub_type:retail,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P49,FIND($P$1&amp;":",P49)+LEN($P$1)+2,FIND(" kWh",P49,FIND($P$1&amp;":",P49))-(FIND($P$1&amp;":",P49)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:ctsp,sub_type:retail,dummy:False,demand:52.002,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P49" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
         <v>20691</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>20128</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>3.2950001768770002E-3</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>4.6951198601200001E-4</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="I50">
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J50" t="b">
-        <v>1</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="J50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L50" t="str">
+      <c r="L50" s="2" t="str">
         <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P50,FIND($P$1&amp;":",P50)+LEN($P$1)+2,FIND(" kWh",P50,FIND($P$1&amp;":",P50))-(FIND($P$1&amp;":",P50)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:mfh,dummy:False,demand:3.258,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P50" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
         <v>20692</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>20128</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>3.2950001768770002E-3</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>4.6951198601200001E-4</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="I51">
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J51" t="b">
-        <v>1</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="J51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L51" t="str">
+      <c r="L51" s="2" t="str">
         <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P51,FIND($P$1&amp;":",P51)+LEN($P$1)+2,FIND(" kWh",P51,FIND($P$1&amp;":",P51))-(FIND($P$1&amp;":",P51)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:mfh,dummy:False,demand:3.258,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P51" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
         <v>20693</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>20588</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>1.923999981955E-3</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>2.74155230727E-4</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="I52">
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J52" t="b">
-        <v>1</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="J52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L52" t="str">
+      <c r="L52" s="2" t="str">
         <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P52,FIND($P$1&amp;":",P52)+LEN($P$1)+2,FIND(" kWh",P52,FIND($P$1&amp;":",P52))-(FIND($P$1&amp;":",P52)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:mfh,dummy:False,demand:0.54,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P52" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
         <v>20694</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>20588</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>1.923999981955E-3</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>2.74155230727E-4</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="I53">
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J53" t="b">
-        <v>1</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="J53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L53" t="str">
+      <c r="L53" s="2" t="str">
         <f>"agent_type:mfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P53,FIND($P$1&amp;":",P53)+LEN($P$1)+2,FIND(" kWh",P53,FIND($P$1&amp;":",P53))-(FIND($P$1&amp;":",P53)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:mfh,dummy:False,demand:0.54,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
         <v>24398</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>13174</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>6.4439997076989998E-3</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>9.1822148533500004E-4</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="I54">
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J54" t="b">
-        <v>1</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="J54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L54" t="str">
-        <f>"agent_type:sfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P54,FIND($P$1&amp;":",P54)+LEN($P$1)+2,FIND(" kWh",P54,FIND($P$1&amp;":",P54))-(FIND($P$1&amp;":",P54)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L54" s="2" t="str">
+        <f t="shared" ref="L54:L59" si="1">"agent_type:sfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P54,FIND($P$1&amp;":",P54)+LEN($P$1)+2,FIND(" kWh",P54,FIND($P$1&amp;":",P54))-(FIND($P$1&amp;":",P54)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
         <v>agent_type:sfh,dummy:False,demand:8.398,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
         <v>24678</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>14739</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>6.4439997076989998E-3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>9.1822148533500004E-4</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="I55">
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J55" t="b">
-        <v>1</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="J55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L55" t="str">
-        <f>"agent_type:sfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P55,FIND($P$1&amp;":",P55)+LEN($P$1)+2,FIND(" kWh",P55,FIND($P$1&amp;":",P55))-(FIND($P$1&amp;":",P55)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L55" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>agent_type:sfh,dummy:False,demand:8.398,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
         <v>25007</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>16517</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>6.4439997076989998E-3</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>9.1822148533500004E-4</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="I56">
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J56" t="b">
-        <v>1</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="J56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L56" t="str">
-        <f>"agent_type:sfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P56,FIND($P$1&amp;":",P56)+LEN($P$1)+2,FIND(" kWh",P56,FIND($P$1&amp;":",P56))-(FIND($P$1&amp;":",P56)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L56" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>agent_type:sfh,dummy:False,demand:8.398,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P56" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
         <v>25329</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>18229</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>6.4439997076989998E-3</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>9.1822148533500004E-4</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="I57">
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J57" t="b">
-        <v>1</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="J57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L57" t="str">
-        <f>"agent_type:sfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P57,FIND($P$1&amp;":",P57)+LEN($P$1)+2,FIND(" kWh",P57,FIND($P$1&amp;":",P57))-(FIND($P$1&amp;":",P57)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L57" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>agent_type:sfh,dummy:False,demand:8.398,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P57" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
         <v>25452</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>18894</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>6.4439997076989998E-3</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>9.1822148533500004E-4</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="I58">
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J58" t="b">
-        <v>1</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="J58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L58" t="str">
-        <f>"agent_type:sfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P58,FIND($P$1&amp;":",P58)+LEN($P$1)+2,FIND(" kWh",P58,FIND($P$1&amp;":",P58))-(FIND($P$1&amp;":",P58)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L58" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>agent_type:sfh,dummy:False,demand:8.398,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
         <v>25617</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>19705</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>6.4439997076989998E-3</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>9.1822148533500004E-4</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="I59">
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J59" t="b">
-        <v>1</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="J59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L59" t="str">
-        <f>"agent_type:sfh,dummy:False,demand:"&amp;IFERROR(ROUND(MID(P59,FIND($P$1&amp;":",P59)+LEN($P$1)+2,FIND(" kWh",P59,FIND($P$1&amp;":",P59))-(FIND($P$1&amp;":",P59)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load"</f>
+      <c r="L59" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>agent_type:sfh,dummy:False,demand:8.398,file:NaN,file_add:NaN,cos_phi:0.98,load_type:inflexible_load</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P59" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>25618</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="2">
         <v>19705</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="2">
         <v>6.4439997076989998E-3</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="2">
         <v>9.1822148533500004E-4</v>
       </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0</v>
-      </c>
-      <c r="I60" s="4">
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J60" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K60" s="4" t="s">
+      <c r="J60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L60" s="4" t="str">
-        <f>"agent_type:sfh,owner:25617,demand:"&amp;IFERROR(ROUND(MID(P60,FIND($P$1&amp;":",P60)+LEN($P$1)+2,FIND(" kWh",P60,FIND($P$1&amp;":",P60))-(FIND($P$1&amp;":",P60)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:heat.csv,cos_phi:0.98,load_type:hp,storage:0.015,efficiency:0.98,soc:0.5"</f>
-        <v>agent_type:sfh,owner:25617,demand:8.398,file:NaN,file_add:heat.csv,cos_phi:0.98,load_type:hp,storage:0.015,efficiency:0.98,soc:0.5</v>
-      </c>
-      <c r="P60" s="4" t="s">
+      <c r="L60" s="2" t="str">
+        <f>"agent_type:sfh,owner:25617,demand:"&amp;IFERROR(ROUND(MID(P60,FIND($P$1&amp;":",P60)+LEN($P$1)+2,FIND(" kWh",P60,FIND($P$1&amp;":",P60))-(FIND($P$1&amp;":",P60)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,cop_file:cop.csv,cos_phi:0.98,load_type:hp,power:0.087"</f>
+        <v>agent_type:sfh,owner:25617,demand:8.398,file:NaN,cop_file:cop.csv,cos_phi:0.98,load_type:hp,power:0.087</v>
+      </c>
+      <c r="P60" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>25619</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="2">
         <v>19705</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="2">
         <v>6.4439997076989998E-3</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="2">
         <v>9.1822148533500004E-4</v>
       </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4">
-        <v>0</v>
-      </c>
-      <c r="I61" s="4">
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J61" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K61" s="4" t="s">
+      <c r="J61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L61" s="4" t="str">
+      <c r="L61" s="2" t="str">
         <f>"agent_type:sfh,owner:25617,demand:"&amp;IFERROR(ROUND(MID(P61,FIND($P$1&amp;":",P61)+LEN($P$1)+2,FIND(" kWh",P61,FIND($P$1&amp;":",P61))-(FIND($P$1&amp;":",P61)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:driving.csv,cos_phi:0.98,load_type:ev,capacity:0.085,consumption:0.018,charging_home:0.0072,charging_ac:0.011,charging_dc:0.150,efficiency:0.9,soc:0.8,v2g:False,v2h:False"</f>
         <v>agent_type:sfh,owner:25617,demand:8.398,file:NaN,file_add:driving.csv,cos_phi:0.98,load_type:ev,capacity:0.085,consumption:0.018,charging_home:0.0072,charging_ac:0.011,charging_dc:0.150,efficiency:0.9,soc:0.8,v2g:False,v2h:False</v>
       </c>
-      <c r="P61" s="4" t="s">
+      <c r="P61" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>256120</v>
-      </c>
-      <c r="B62" s="4" t="s">
+        <v>25620</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="2">
         <v>20128</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="2">
         <v>6.4439997076989998E-3</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="2">
         <v>9.1822148533500004E-4</v>
       </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0</v>
-      </c>
-      <c r="I62" s="4">
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J62" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K62" s="4" t="s">
+      <c r="J62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L62" s="4" t="str">
-        <f>"agent_type:mfh,owner:20691,demand:"&amp;IFERROR(ROUND(MID(P62,FIND($P$1&amp;":",P62)+LEN($P$1)+2,FIND(" kWh",P62,FIND($P$1&amp;":",P62))-(FIND($P$1&amp;":",P62)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:heat.csv,cos_phi:0.98,load_type:hp,storage:0.015,efficiency:0.98,soc:0.5"</f>
-        <v>agent_type:mfh,owner:20691,demand:8.398,file:NaN,file_add:heat.csv,cos_phi:0.98,load_type:hp,storage:0.015,efficiency:0.98,soc:0.5</v>
-      </c>
-      <c r="P62" s="4" t="s">
+      <c r="L62" s="2" t="str">
+        <f>"agent_type:mfh,owner:20691,demand:"&amp;IFERROR(ROUND(MID(P62,FIND($P$1&amp;":",P62)+LEN($P$1)+2,FIND(" kWh",P62,FIND($P$1&amp;":",P62))-(FIND($P$1&amp;":",P62)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,cop_file:cop.csv,cos_phi:0.98,load_type:hp,power:0.0150"</f>
+        <v>agent_type:mfh,owner:20691,demand:8.398,file:NaN,cop_file:cop.csv,cos_phi:0.98,load_type:hp,power:0.0150</v>
+      </c>
+      <c r="P62" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>25621</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="2">
         <v>17261</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="2">
         <v>6.4439997076989998E-3</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="2">
         <v>9.1822148533500004E-4</v>
       </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="I63" s="4">
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="J63" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K63" s="4" t="s">
+      <c r="J63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L63" s="4" t="str">
+      <c r="L63" s="2" t="str">
         <f>"agent_type:mfh,owner:20672,demand:"&amp;IFERROR(ROUND(MID(P63,FIND($P$1&amp;":",P63)+LEN($P$1)+2,FIND(" kWh",P63,FIND($P$1&amp;":",P63))-(FIND($P$1&amp;":",P63)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,file_add:driving.csv,cos_phi:0.98,load_type:ev,capacity:0.085,consumption:0.018,charging_home:0.0072,charging_ac:0.011,charging_dc:0.150,efficiency:0.9,soc:0.8,v2g:False,v2h:False"</f>
         <v>agent_type:mfh,owner:20672,demand:8.398,file:NaN,file_add:driving.csv,cos_phi:0.98,load_type:ev,capacity:0.085,consumption:0.018,charging_home:0.0072,charging_ac:0.011,charging_dc:0.150,efficiency:0.9,soc:0.8,v2g:False,v2h:False</v>
       </c>
-      <c r="P63" s="4" t="s">
+      <c r="P63" s="2" t="s">
         <v>233</v>
       </c>
     </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>25622</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="2">
+        <v>19705</v>
+      </c>
+      <c r="D64" s="2">
+        <v>6.4439997076989998E-3</v>
+      </c>
+      <c r="E64" s="2">
+        <v>9.1822148533500004E-4</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1.0000000474970001E-3</v>
+      </c>
+      <c r="J64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L64" s="2" t="str">
+        <f>"agent_type:sfh,owner:25617,demand:"&amp;IFERROR(ROUND(MID(P64,FIND($P$1&amp;":",P64)+LEN($P$1)+2,FIND(" kWh",P64,FIND($P$1&amp;":",P64))-(FIND($P$1&amp;":",P64)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,heat_file:heat.csv,load_type:heat,temperature:55"</f>
+        <v>agent_type:sfh,owner:25617,demand:8.398,file:NaN,heat_file:heat.csv,load_type:heat,temperature:55</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>25623</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="2">
+        <v>19705</v>
+      </c>
+      <c r="D65" s="2">
+        <v>6.4439997076989998E-3</v>
+      </c>
+      <c r="E65" s="2">
+        <v>9.1822148533500004E-4</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1.0000000474970001E-3</v>
+      </c>
+      <c r="J65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L65" s="2" t="str">
+        <f>"agent_type:sfh,owner:25617,demand:"&amp;IFERROR(ROUND(MID(P65,FIND($P$1&amp;":",P65)+LEN($P$1)+2,FIND(" kWh",P65,FIND($P$1&amp;":",P65))-(FIND($P$1&amp;":",P65)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,heat_file:dhw.csv,load_type:dhw,temperature:55"</f>
+        <v>agent_type:sfh,owner:25617,demand:8.398,file:NaN,heat_file:dhw.csv,load_type:dhw,temperature:55</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>25624</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="2">
+        <v>17261</v>
+      </c>
+      <c r="D66" s="2">
+        <v>6.4439997076989998E-3</v>
+      </c>
+      <c r="E66" s="2">
+        <v>9.1822148533500004E-4</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1.0000000474970001E-3</v>
+      </c>
+      <c r="J66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L66" s="2" t="str">
+        <f>"agent_type:mfh,owner:20672,demand:"&amp;IFERROR(ROUND(MID(P66,FIND($P$1&amp;":",P66)+LEN($P$1)+2,FIND(" kWh",P66,FIND($P$1&amp;":",P66))-(FIND($P$1&amp;":",P66)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,heat_file:heat.csv,load_type:heat,temperature:55"</f>
+        <v>agent_type:mfh,owner:20672,demand:8.398,file:NaN,heat_file:heat.csv,load_type:heat,temperature:55</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>25625</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="2">
+        <v>17261</v>
+      </c>
+      <c r="D67" s="2">
+        <v>6.4439997076989998E-3</v>
+      </c>
+      <c r="E67" s="2">
+        <v>9.1822148533500004E-4</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1.0000000474970001E-3</v>
+      </c>
+      <c r="J67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L67" s="2" t="str">
+        <f>"agent_type:mfh,owner:20672,demand:"&amp;IFERROR(ROUND(MID(P67,FIND($P$1&amp;":",P67)+LEN($P$1)+2,FIND(" kWh",P67,FIND($P$1&amp;":",P67))-(FIND($P$1&amp;":",P67)+LEN($P$1)+2))/1000,3),"nan")&amp;",file:NaN,heat_file:dhw.csv,load_type:dhw,temperature:55"</f>
+        <v>agent_type:mfh,owner:20672,demand:8.398,file:NaN,heat_file:dhw.csv,load_type:dhw,temperature:55</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P63" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter val="*industry*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P63" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1" xr:uid="{9B8FDBBF-D89E-43E7-BB23-A02E8A9A915D}">
       <formula1>"2019,2020,2021"</formula1>
@@ -22061,655 +22213,792 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="114.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="37.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="114.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>86</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>16503</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1.0199999436735999E-2</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="str">
-        <f>"plant_type:pv,owner:20689,power:"&amp;ROUND($D2,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99,orientation:1,angle:35"</f>
-        <v>plant_type:pv,owner:20689,power:0.0102,file:NaN,file_add:NaN,cos_phi:0.99,orientation:1,angle:35</v>
+      <c r="H2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>"plant_type:pv,owner:20689,power:"&amp;ROUND($D2,4)&amp;",file:NaN,cos_phi:0.99,orientation:1,angle:35"</f>
+        <v>plant_type:pv,owner:20689,power:0.0102,file:NaN,cos_phi:0.99,orientation:1,angle:35</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>130</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>13846</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>5.4999999701980003E-3</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="str">
-        <f>"plant_type:pv,owner:20688,power:"&amp;ROUND($D3,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99,orientation:10,angle:75"</f>
-        <v>plant_type:pv,owner:20688,power:0.0055,file:NaN,file_add:NaN,cos_phi:0.99,orientation:10,angle:75</v>
+      <c r="H3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f>"plant_type:pv,owner:20688,power:"&amp;ROUND($D3,4)&amp;",file:NaN,cos_phi:0.99,orientation:10,angle:75"</f>
+        <v>plant_type:pv,owner:20688,power:0.0055,file:NaN,cos_phi:0.99,orientation:10,angle:75</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>232</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>17221</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>1.2159999459982E-2</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="str">
-        <f>"plant_type:pv,owner:20640,power:"&amp;ROUND($D4,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99,orientation:15,angle:40"</f>
-        <v>plant_type:pv,owner:20640,power:0.0122,file:NaN,file_add:NaN,cos_phi:0.99,orientation:15,angle:40</v>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f>"plant_type:pv,owner:20640,power:"&amp;ROUND($D4,4)&amp;",file:NaN,cos_phi:0.99,orientation:15,angle:40"</f>
+        <v>plant_type:pv,owner:20640,power:0.0122,file:NaN,cos_phi:0.99,orientation:15,angle:40</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>281</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>16503</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>2.5000000372528999E-2</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="str">
-        <f>"plant_type:pv,owner:20690,power:"&amp;ROUND($D5,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99,orientation:-1,angle:5"</f>
-        <v>plant_type:pv,owner:20690,power:0.025,file:NaN,file_add:NaN,cos_phi:0.99,orientation:-1,angle:5</v>
+      <c r="H5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f>"plant_type:pv,owner:20690,power:"&amp;ROUND($D5,4)&amp;",file:NaN,cos_phi:0.99,orientation:-1,angle:5"</f>
+        <v>plant_type:pv,owner:20690,power:0.025,file:NaN,cos_phi:0.99,orientation:-1,angle:5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>484</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>16517</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.15999999642372101</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="str">
-        <f>"plant_type:pv,owner:25007,power:"&amp;ROUND($D6,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99,orientation:-30,angle:25"</f>
-        <v>plant_type:pv,owner:25007,power:0.16,file:NaN,file_add:NaN,cos_phi:0.99,orientation:-30,angle:25</v>
+      <c r="H6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f>"plant_type:pv,owner:25007,power:"&amp;ROUND($D6,4)&amp;",file:NaN,cos_phi:0.99,orientation:-30,angle:25"</f>
+        <v>plant_type:pv,owner:25007,power:0.16,file:NaN,cos_phi:0.99,orientation:-30,angle:25</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>494</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>19889</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>2.9799999669193999E-2</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="str">
-        <f>"plant_type:pv,owner:20683,power:"&amp;ROUND($D7,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99,orientation:-5,angle:32"</f>
-        <v>plant_type:pv,owner:20683,power:0.0298,file:NaN,file_add:NaN,cos_phi:0.99,orientation:-5,angle:32</v>
+      <c r="H7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f>"plant_type:pv,owner:20683,power:"&amp;ROUND($D7,4)&amp;",file:NaN,cos_phi:0.99,orientation:-5,angle:32"</f>
+        <v>plant_type:pv,owner:20683,power:0.0298,file:NaN,cos_phi:0.99,orientation:-5,angle:32</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>568</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>20267</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>8.9999996125699998E-3</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="str">
-        <f>"plant_type:pv,owner:20664,power:"&amp;ROUND($D8,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99,orientation:11,angle:33"</f>
-        <v>plant_type:pv,owner:20664,power:0.009,file:NaN,file_add:NaN,cos_phi:0.99,orientation:11,angle:33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f>"plant_type:pv,owner:20664,power:"&amp;ROUND($D8,4)&amp;",file:NaN,cos_phi:0.99,orientation:11,angle:33"</f>
+        <v>plant_type:pv,owner:20664,power:0.009,file:NaN,cos_phi:0.99,orientation:11,angle:33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>485</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>16517</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>0.15999999642372101</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="str">
-        <f>"plant_type:battery,owner:25007,power:"&amp;ROUND($D9,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99,capacity:"&amp;ROUND($D9*1.2,4)&amp;",efficiency:0.95,soc:0.5,g2b:False,b2g:False"</f>
-        <v>plant_type:battery,owner:25007,power:0.16,file:NaN,file_add:NaN,cos_phi:0.99,capacity:0.192,efficiency:0.95,soc:0.5,g2b:False,b2g:False</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f>"plant_type:battery,owner:25007,power:"&amp;ROUND($D9,4)&amp;",file:NaN,cos_phi:0.99,capacity:"&amp;ROUND($D9*1.2,4)&amp;",efficiency:0.95,soc:0.5,g2b:False,b2g:False"</f>
+        <v>plant_type:battery,owner:25007,power:0.16,file:NaN,cos_phi:0.99,capacity:0.192,efficiency:0.95,soc:0.5,g2b:False,b2g:False</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>495</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>19889</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>2.9799999669193999E-2</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4" t="str">
-        <f>"plant_type:wind,owner:20683,power:"&amp;ROUND($D10,4)&amp;",file:NaN,file_add:NaN,height:30"</f>
-        <v>plant_type:wind,owner:20683,power:0.0298,file:NaN,file_add:NaN,height:30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f>"plant_type:wind,owner:20683,power:"&amp;ROUND($D10,4)&amp;",file:NaN,cos_phi:0.99,height:30"</f>
+        <v>plant_type:wind,owner:20683,power:0.0298,file:NaN,cos_phi:0.99,height:30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>496</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>19889</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>2.9799999669193999E-2</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="str">
+      <c r="H11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="str">
         <f>"plant_type:fixed_gen,owner:20683,power:"&amp;ROUND($D11,4)&amp;",file:NaN,file_add:NaN"</f>
         <v>plant_type:fixed_gen,owner:20683,power:0.0298,file:NaN,file_add:NaN</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>497</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>19889</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>0.15999999642372101</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4" t="str">
-        <f>"plant_type:battery,owner:20683,power:"&amp;ROUND($D12,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99,capacity:"&amp;ROUND($D12*1.2,4)&amp;",efficiency:0.95,soc:0.5,g2b:False,b2g:False"</f>
-        <v>plant_type:battery,owner:20683,power:0.16,file:NaN,file_add:NaN,cos_phi:0.99,capacity:0.192,efficiency:0.95,soc:0.5,g2b:False,b2g:False</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f>"plant_type:battery,owner:20683,power:"&amp;ROUND($D12,4)&amp;",file:NaN,cos_phi:0.99,capacity:"&amp;ROUND($D12*1.2,4)&amp;",efficiency:0.95,soc:0.5,g2b:False,b2g:False"</f>
+        <v>plant_type:battery,owner:20683,power:0.16,file:NaN,cos_phi:0.99,capacity:0.192,efficiency:0.95,soc:0.5,g2b:False,b2g:False</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>233</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>17221</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>1.2159999459982E-2</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4" t="str">
-        <f>"plant_type:fixed_gen,owner:20640,power:"&amp;ROUND($D13,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99"</f>
-        <v>plant_type:fixed_gen,owner:20640,power:0.0122,file:NaN,file_add:NaN,cos_phi:0.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f>"plant_type:fixed_gen,owner:20640,power:"&amp;ROUND($D13,4)&amp;",file:NaN,cos_phi:0.99"</f>
+        <v>plant_type:fixed_gen,owner:20640,power:0.0122,file:NaN,cos_phi:0.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>234</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>17221</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>1.2159999459982E-2</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4" t="str">
-        <f>"plant_type:wind,owner:20640,power:"&amp;ROUND($D14,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99,height:30"</f>
-        <v>plant_type:wind,owner:20640,power:0.0122,file:NaN,file_add:NaN,cos_phi:0.99,height:30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f>"plant_type:wind,owner:20640,power:"&amp;ROUND($D14,4)&amp;",file:NaN,cos_phi:0.99,height:30"</f>
+        <v>plant_type:wind,owner:20640,power:0.0122,file:NaN,cos_phi:0.99,height:30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>236</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>17221</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>0.15999999642372101</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4" t="str">
-        <f>"plant_type:battery,owner:20640,power:"&amp;ROUND($D15,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99,capacity:"&amp;ROUND($D15*1.2,4)&amp;",efficiency:0.95,soc:0.5,g2b:False,b2g:False"</f>
-        <v>plant_type:battery,owner:20640,power:0.16,file:NaN,file_add:NaN,cos_phi:0.99,capacity:0.192,efficiency:0.95,soc:0.5,g2b:False,b2g:False</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f>"plant_type:battery,owner:20640,power:"&amp;ROUND($D15,4)&amp;",file:NaN,cos_phi:0.99,capacity:"&amp;ROUND($D15*1.2,4)&amp;",efficiency:0.95,soc:0.5,g2b:False,b2g:False"</f>
+        <v>plant_type:battery,owner:20640,power:0.16,file:NaN,cos_phi:0.99,capacity:0.192,efficiency:0.95,soc:0.5,g2b:False,b2g:False</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1000</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>13014</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>1.2159999459982E-2</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4" t="str">
-        <f>"plant_type:fixed_gen,owner:20644,power:"&amp;ROUND($D16,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99"</f>
-        <v>plant_type:fixed_gen,owner:20644,power:0.0122,file:NaN,file_add:NaN,cos_phi:0.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f>"plant_type:fixed_gen,owner:20644,power:"&amp;ROUND($D16,4)&amp;",file:NaN,cos_phi:0.99"</f>
+        <v>plant_type:fixed_gen,owner:20644,power:0.0122,file:NaN,cos_phi:0.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1001</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>13014</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>1.2159999459982E-2</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4" t="str">
-        <f>"plant_type:wind,owner:20644,power:"&amp;ROUND($D17,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99,height:30"</f>
-        <v>plant_type:wind,owner:20644,power:0.0122,file:NaN,file_add:NaN,cos_phi:0.99,height:30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f>"plant_type:wind,owner:20644,power:"&amp;ROUND($D17,4)&amp;",file:NaN,cos_phi:0.99,height:30"</f>
+        <v>plant_type:wind,owner:20644,power:0.0122,file:NaN,cos_phi:0.99,height:30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1002</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>13014</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>0.15999999642372101</v>
       </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4" t="str">
-        <f>"plant_type:battery,owner:20644,power:"&amp;ROUND($D18,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99,capacity:"&amp;ROUND($D18*1.2,4)&amp;",efficiency:0.95,soc:0.5,g2b:False,b2g:False"</f>
-        <v>plant_type:battery,owner:20644,power:0.16,file:NaN,file_add:NaN,cos_phi:0.99,capacity:0.192,efficiency:0.95,soc:0.5,g2b:False,b2g:False</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f>"plant_type:battery,owner:20644,power:"&amp;ROUND($D18,4)&amp;",file:NaN,cos_phi:0.99,capacity:"&amp;ROUND($D18*1.2,4)&amp;",efficiency:0.95,soc:0.5,g2b:False,b2g:False"</f>
+        <v>plant_type:battery,owner:20644,power:0.16,file:NaN,cos_phi:0.99,capacity:0.192,efficiency:0.95,soc:0.5,g2b:False,b2g:False</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1003</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>13014</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>8.9999996125699998E-3</v>
       </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
         <v>1.0000000474970001E-3</v>
       </c>
-      <c r="H19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4" t="str">
-        <f>"plant_type:pv,owner:20644,power:"&amp;ROUND($D19,4)&amp;",file:NaN,file_add:NaN,cos_phi:0.99,orientation:11,angle:33"</f>
-        <v>plant_type:pv,owner:20644,power:0.009,file:NaN,file_add:NaN,cos_phi:0.99,orientation:11,angle:33</v>
+      <c r="H19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f>"plant_type:pv,owner:20644,power:"&amp;ROUND($D19,4)&amp;",file:NaN,cos_phi:0.99,orientation:11,angle:33"</f>
+        <v>plant_type:pv,owner:20644,power:0.009,file:NaN,cos_phi:0.99,orientation:11,angle:33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>1004</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16517</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.15999999642372101</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.0000000474970001E-3</v>
+      </c>
+      <c r="H20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f>"plant_type:heat_storage,owner:25007,power:"&amp;ROUND($D20,4)&amp;",capacity:"&amp;ROUND($D20*1.2,4)&amp;",efficiency:0.95,soc:0.5"</f>
+        <v>plant_type:heat_storage,owner:25007,power:0.16,capacity:0.192,efficiency:0.95,soc:0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>1005</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16517</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.15999999642372101</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.0000000474970001E-3</v>
+      </c>
+      <c r="H21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f>"plant_type:wind,owner:25007,power:"&amp;ROUND($D21,4)&amp;",file:NaN,cos_phi:0.99,height:30"</f>
+        <v>plant_type:wind,owner:25007,power:0.16,file:NaN,cos_phi:0.99,height:30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>1006</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C22" s="2">
+        <v>16517</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.15999999642372101</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.0000000474970001E-3</v>
+      </c>
+      <c r="H22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="str">
+        <f>"plant_type:fixed_gen,owner:25007,power:"&amp;ROUND($D22,4)&amp;",file:NaN,cos_phi:0.99"</f>
+        <v>plant_type:fixed_gen,owner:25007,power:0.16,file:NaN,cos_phi:0.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>1007</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="2">
+        <v>19889</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.15999999642372101</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.0000000474970001E-3</v>
+      </c>
+      <c r="H23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="str">
+        <f>"plant_type:heat_storage,owner:20683,power:"&amp;ROUND($D23,4)&amp;",capacity:"&amp;ROUND($D23*1.2,4)&amp;",efficiency:0.95,soc:0.5"</f>
+        <v>plant_type:heat_storage,owner:20683,power:0.16,capacity:0.192,efficiency:0.95,soc:0.5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
